--- a/medicine/Psychotrope/Bornem_(bière)/Bornem_(bière).xlsx
+++ b/medicine/Psychotrope/Bornem_(bière)/Bornem_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bornem_(bi%C3%A8re)</t>
+          <t>Bornem_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Bornem est une bière d'abbaye belge brassée à la brasserie Van Steenberge à Ertvelde dans la commune de Evergem en province de Flandre-Orientale et se référant à l'abbaye Saint-Bernard (en néerlandais : abdij Sint Bernardus) de Bornem en province d'Anvers.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bornem_(bi%C3%A8re)</t>
+          <t>Bornem_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette bière a été brassée depuis 1957 par la brasserie Beirens à Wommelgem. Lorsque cette brasserie fit faillite en 1971, les abbés de Bornem trouvèrent un accord avec la brasserie brasserie Van Steenberge. 
 À l'origine, une représentation de Saint-Bernard représentant l'abbaye de Bornem figurait sur les étiquettes.  Mais, pour éviter toute confusion avec les étiquettes de la bière St. Bernardus de Watou, Saint-Bernard fut remplacé par un héron tenant un poisson dans son bec.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bornem_(bi%C3%A8re)</t>
+          <t>Bornem_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe deux variétés de bière d'abbaye vivante de haute fermentation puis refermentée en bouteille : 
 Bornem Dubbel est une bière brune titrant 8 % d'alcool. Elle est la bière mère des bières à étiquette  Uilenspiegelbier de Damme et Abdij van Roosenberg Dubbel.
